--- a/chiikawa_data.xlsx
+++ b/chiikawa_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moriwakikouta/Desktop/pandastest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80341B09-D7F5-424F-BC7C-CC8FB3316691}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FD3D83-2922-7A4B-B212-76F1CF654D42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="500" windowWidth="28300" windowHeight="17440" xr2:uid="{7FF4FAFE-48A5-AD4D-B8DC-1436E9FDF6D0}"/>
   </bookViews>
@@ -25,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>はちわれ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Avg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ちい</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -51,19 +39,63 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シーサー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かに</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Point</t>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウb</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアg</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニch</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>モク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -110,8 +142,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,115 +463,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A116B8-7BBB-7A4E-A9AA-BA24535C6C6F}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>32342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4">
+        <v>23124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>34534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>45143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>23111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>32342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>23124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>3022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>2221</v>
-      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>34534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
